--- a/DYN2892.tmp.xlsx
+++ b/DYN2892.tmp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
   <si>
     <t>Причина отмены  отборочной накладной</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>011_825-100-05-2</t>
+  </si>
+  <si>
+    <t>010_825-10-15-2</t>
+  </si>
+  <si>
+    <t>010_825-01-15-2</t>
   </si>
 </sst>
 </file>
@@ -185,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table" displayName="Table" ref="A1:I28" totalsRowShown="0">
+  <autoFilter ref="A1:I28"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Причина отмены  отборочной накладной"/>
     <tableColumn id="2" name="Код пользователя"/>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1093,52 @@
         <v>13</v>
       </c>
     </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/DYN2892.tmp.xlsx
+++ b/DYN2892.tmp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Причина отмены  отборочной накладной</t>
   </si>
@@ -99,37 +99,10 @@
     <t>80404080</t>
   </si>
   <si>
-    <t>80411927</t>
-  </si>
-  <si>
-    <t>80411930</t>
-  </si>
-  <si>
-    <t>80411932</t>
-  </si>
-  <si>
-    <t>80454444</t>
-  </si>
-  <si>
-    <t>012_825-10-05-2</t>
-  </si>
-  <si>
-    <t>80451234</t>
-  </si>
-  <si>
-    <t>012_825-100-05-2</t>
-  </si>
-  <si>
-    <t>010_825-10-05-2</t>
-  </si>
-  <si>
-    <t>011_825-100-05-2</t>
-  </si>
-  <si>
-    <t>010_825-10-15-2</t>
-  </si>
-  <si>
-    <t>010_825-01-15-2</t>
+    <t>012_825-12-05-3</t>
+  </si>
+  <si>
+    <t>80294888</t>
   </si>
 </sst>
 </file>
@@ -471,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,297 +818,21 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
